--- a/main/data/reverse_integer.xlsx
+++ b/main/data/reverse_integer.xlsx
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25.1929759979248</v>
+        <v>15.89417457580566</v>
       </c>
       <c r="D2" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20.13897895812988</v>
+        <v>15.33699035644531</v>
       </c>
       <c r="D3" t="n">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.40400695800781</v>
+        <v>15.64908027648926</v>
       </c>
       <c r="D4" t="n">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17.95792579650879</v>
+        <v>15.87915420532227</v>
       </c>
       <c r="D5" t="n">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18.37992668151855</v>
+        <v>15.65909385681152</v>
       </c>
       <c r="D6" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>

--- a/main/data/reverse_integer.xlsx
+++ b/main/data/reverse_integer.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Memory Usage (mb)</t>
+          <t>Memory Usage (bytes)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15.89417457580566</v>
+        <v>16.50881767272949</v>
       </c>
       <c r="D2" t="n">
         <v>175</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15.33699035644531</v>
+        <v>15.82217216491699</v>
       </c>
       <c r="D3" t="n">
         <v>176</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15.64908027648926</v>
+        <v>15.93804359436035</v>
       </c>
       <c r="D4" t="n">
         <v>174</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15.87915420532227</v>
+        <v>16.19291305541992</v>
       </c>
       <c r="D5" t="n">
         <v>123</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.65909385681152</v>
+        <v>16.74079895019531</v>
       </c>
       <c r="D6" t="n">
         <v>123</v>

--- a/main/data/reverse_integer.xlsx
+++ b/main/data/reverse_integer.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.50881767272949</v>
+        <v>18.29910278320312</v>
       </c>
       <c r="D2" t="n">
         <v>175</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15.82217216491699</v>
+        <v>17.38476753234863</v>
       </c>
       <c r="D3" t="n">
         <v>176</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15.93804359436035</v>
+        <v>17.39287376403809</v>
       </c>
       <c r="D4" t="n">
         <v>174</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.19291305541992</v>
+        <v>17.18902587890625</v>
       </c>
       <c r="D5" t="n">
         <v>123</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16.74079895019531</v>
+        <v>17.07291603088379</v>
       </c>
       <c r="D6" t="n">
         <v>123</v>
